--- a/Descargas/R15_4º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Enero.xlsx
+++ b/Descargas/R15_4º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Enero.xlsx
@@ -1117,7 +1117,7 @@
     <row r="92">
       <c t="inlineStr" r="A92">
         <is>
-          <t xml:space="preserve">Otros Delitos Ley General De Bancos.</t>
+          <t xml:space="preserve">Otros Delitos Ley De Cuentas Corrientes Bancarias Y Cheque.</t>
         </is>
       </c>
       <c r="B92" s="65">
@@ -1127,27 +1127,27 @@
     <row r="93">
       <c t="inlineStr" r="A93">
         <is>
-          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
+          <t xml:space="preserve">Otros Delitos Ley General De Bancos.</t>
         </is>
       </c>
       <c r="B93" s="65">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c t="inlineStr" r="A94">
         <is>
-          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
+          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
         </is>
       </c>
       <c r="B94" s="65">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95">
       <c t="inlineStr" r="A95">
         <is>
-          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
+          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
         </is>
       </c>
       <c r="B95" s="65">
@@ -1157,37 +1157,37 @@
     <row r="96">
       <c t="inlineStr" r="A96">
         <is>
-          <t xml:space="preserve">Porte Ilegal De Arma De Fuego, Municiones Y Otros Sujetas A.</t>
+          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
         </is>
       </c>
       <c r="B96" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c t="inlineStr" r="A97">
         <is>
-          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+          <t xml:space="preserve">Porte Ilegal De Arma De Fuego, Municiones Y Otros Sujetas A.</t>
         </is>
       </c>
       <c r="B97" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c t="inlineStr" r="A98">
         <is>
-          <t xml:space="preserve">Presentacion De Peritos,Testigos O Interpretes Que Faltaren.</t>
+          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
         </is>
       </c>
       <c r="B98" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c t="inlineStr" r="A99">
         <is>
-          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
+          <t xml:space="preserve">Presentacion De Peritos,Testigos O Interpretes Que Faltaren.</t>
         </is>
       </c>
       <c r="B99" s="65">
@@ -1197,27 +1197,27 @@
     <row r="100">
       <c t="inlineStr" r="A100">
         <is>
-          <t xml:space="preserve">Presunta Desgracia.</t>
+          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
         </is>
       </c>
       <c r="B100" s="65">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c t="inlineStr" r="A101">
         <is>
-          <t xml:space="preserve">Prevaricacion Del Abogado Y Procuradorarts. 231 Y 232.</t>
+          <t xml:space="preserve">Presunta Desgracia.</t>
         </is>
       </c>
       <c r="B101" s="65">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c t="inlineStr" r="A102">
         <is>
-          <t xml:space="preserve">Prevaricacion Judicial Y Administrativa Art. 223 Al 229.</t>
+          <t xml:space="preserve">Prevaricacion Del Abogado Y Procuradorarts. 231 Y 232.</t>
         </is>
       </c>
       <c r="B102" s="65">
@@ -1227,180 +1227,190 @@
     <row r="103">
       <c t="inlineStr" r="A103">
         <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+          <t xml:space="preserve">Prevaricacion Judicial Y Administrativa Art. 223 Al 229.</t>
         </is>
       </c>
       <c r="B103" s="65">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c t="inlineStr" r="A104">
         <is>
-          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B104" s="65">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c t="inlineStr" r="A105">
         <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
+          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
         </is>
       </c>
       <c r="B105" s="65">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c t="inlineStr" r="A106">
         <is>
-          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
         </is>
       </c>
       <c r="B106" s="65">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c t="inlineStr" r="A107">
         <is>
-          <t xml:space="preserve">Robo De Vehiculo Motorizado.</t>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
         </is>
       </c>
       <c r="B107" s="65">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
       <c t="inlineStr" r="A108">
         <is>
-          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
+          <t xml:space="preserve">Robo De Vehiculo Motorizado.</t>
         </is>
       </c>
       <c r="B108" s="65">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
       <c t="inlineStr" r="A109">
         <is>
-          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
+          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
         </is>
       </c>
       <c r="B109" s="65">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
       <c t="inlineStr" r="A110">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
         </is>
       </c>
       <c r="B110" s="65">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111">
       <c t="inlineStr" r="A111">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B111" s="65">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112">
       <c t="inlineStr" r="A112">
         <is>
-          <t xml:space="preserve">Sabotaje Informático.</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B112" s="65">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
       <c t="inlineStr" r="A113">
         <is>
-          <t xml:space="preserve">Secuestro</t>
+          <t xml:space="preserve">Sabotaje Informático.</t>
         </is>
       </c>
       <c r="B113" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c t="inlineStr" r="A114">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Secuestro</t>
         </is>
       </c>
       <c r="B114" s="65">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c t="inlineStr" r="A115">
         <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
         </is>
       </c>
       <c r="B115" s="65">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
       <c t="inlineStr" r="A116">
         <is>
-          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
         </is>
       </c>
       <c r="B116" s="65">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c t="inlineStr" r="A117">
         <is>
-          <t xml:space="preserve">Usurpacion De Nombre.</t>
+          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
         </is>
       </c>
       <c r="B117" s="65">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118">
       <c t="inlineStr" r="A118">
         <is>
-          <t xml:space="preserve">Violacion  De Morada.</t>
+          <t xml:space="preserve">Usurpacion De Nombre.</t>
         </is>
       </c>
       <c r="B118" s="65">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119">
       <c t="inlineStr" r="A119">
         <is>
-          <t xml:space="preserve">Violacion De Secretos De Fabrica.art.284.</t>
+          <t xml:space="preserve">Violacion  De Morada.</t>
         </is>
       </c>
       <c r="B119" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c t="inlineStr" r="A120">
         <is>
+          <t xml:space="preserve">Violacion De Secretos De Fabrica.art.284.</t>
+        </is>
+      </c>
+      <c r="B120" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c t="inlineStr" r="A121">
+        <is>
           <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
         </is>
       </c>
-      <c r="B120" s="65">
+      <c r="B121" s="65">
         <v>2</v>
       </c>
     </row>
